--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H2">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.483004016180549</v>
+        <v>0.5177623333333333</v>
       </c>
       <c r="N2">
-        <v>0.483004016180549</v>
+        <v>1.553287</v>
       </c>
       <c r="O2">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="P2">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="Q2">
-        <v>27.60390436915874</v>
+        <v>32.72841361263866</v>
       </c>
       <c r="R2">
-        <v>27.60390436915874</v>
+        <v>294.555722513748</v>
       </c>
       <c r="S2">
-        <v>0.03854753922251287</v>
+        <v>0.04282118378237101</v>
       </c>
       <c r="T2">
-        <v>0.03854753922251287</v>
+        <v>0.04282118378237101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H3">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.066385608957</v>
+        <v>3.098536666666666</v>
       </c>
       <c r="N3">
-        <v>3.066385608957</v>
+        <v>9.29561</v>
       </c>
       <c r="O3">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="P3">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="Q3">
-        <v>175.2453649929346</v>
+        <v>195.8624316444933</v>
       </c>
       <c r="R3">
-        <v>175.2453649929346</v>
+        <v>1762.76188480044</v>
       </c>
       <c r="S3">
-        <v>0.2447218150841104</v>
+        <v>0.2562623804739536</v>
       </c>
       <c r="T3">
-        <v>0.2447218150841104</v>
+        <v>0.2562623804739536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H4">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I4">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J4">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32253921086497</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N4">
-        <v>2.32253921086497</v>
+        <v>7.007279</v>
       </c>
       <c r="O4">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="P4">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="Q4">
-        <v>132.7341970721274</v>
+        <v>147.6463302732573</v>
       </c>
       <c r="R4">
-        <v>132.7341970721274</v>
+        <v>1328.816972459316</v>
       </c>
       <c r="S4">
-        <v>0.185356991510347</v>
+        <v>0.1931774243094476</v>
       </c>
       <c r="T4">
-        <v>0.185356991510347</v>
+        <v>0.1931774243094477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H5">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.483004016180549</v>
+        <v>0.5177623333333333</v>
       </c>
       <c r="N5">
-        <v>0.483004016180549</v>
+        <v>1.553287</v>
       </c>
       <c r="O5">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="P5">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="Q5">
-        <v>20.76922305620131</v>
+        <v>22.42276857750533</v>
       </c>
       <c r="R5">
-        <v>20.76922305620131</v>
+        <v>201.804917197548</v>
       </c>
       <c r="S5">
-        <v>0.02900323192231223</v>
+        <v>0.02933748960555005</v>
       </c>
       <c r="T5">
-        <v>0.02900323192231223</v>
+        <v>0.02933748960555005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H6">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J6">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.066385608957</v>
+        <v>3.098536666666666</v>
       </c>
       <c r="N6">
-        <v>3.066385608957</v>
+        <v>9.29561</v>
       </c>
       <c r="O6">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="P6">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="Q6">
-        <v>131.8549009019986</v>
+        <v>134.1885381238266</v>
       </c>
       <c r="R6">
-        <v>131.8549009019986</v>
+        <v>1207.69684311444</v>
       </c>
       <c r="S6">
-        <v>0.1841290962404258</v>
+        <v>0.1755695256267819</v>
       </c>
       <c r="T6">
-        <v>0.1841290962404258</v>
+        <v>0.1755695256267819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H7">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J7">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.32253921086497</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N7">
-        <v>2.32253921086497</v>
+        <v>7.007279</v>
       </c>
       <c r="O7">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="P7">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="Q7">
-        <v>99.86942822685972</v>
+        <v>101.1549027159907</v>
       </c>
       <c r="R7">
-        <v>99.86942822685972</v>
+        <v>910.394124443916</v>
       </c>
       <c r="S7">
-        <v>0.1394629053274805</v>
+        <v>0.1323489959200645</v>
       </c>
       <c r="T7">
-        <v>0.1394629053274805</v>
+        <v>0.1323489959200645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H8">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I8">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J8">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.483004016180549</v>
+        <v>0.5177623333333333</v>
       </c>
       <c r="N8">
-        <v>0.483004016180549</v>
+        <v>1.553287</v>
       </c>
       <c r="O8">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="P8">
-        <v>0.08225644922995483</v>
+        <v>0.08698878192060831</v>
       </c>
       <c r="Q8">
-        <v>10.53074047612557</v>
+        <v>11.33471527655267</v>
       </c>
       <c r="R8">
-        <v>10.53074047612557</v>
+        <v>102.012437488974</v>
       </c>
       <c r="S8">
-        <v>0.01470567808512972</v>
+        <v>0.01483010853268725</v>
       </c>
       <c r="T8">
-        <v>0.01470567808512972</v>
+        <v>0.01483010853268724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H9">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I9">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J9">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.066385608957</v>
+        <v>3.098536666666666</v>
       </c>
       <c r="N9">
-        <v>3.066385608957</v>
+        <v>9.29561</v>
       </c>
       <c r="O9">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="P9">
-        <v>0.522210962461958</v>
+        <v>0.5205823464105641</v>
       </c>
       <c r="Q9">
-        <v>66.85516054918641</v>
+        <v>67.83234049591333</v>
       </c>
       <c r="R9">
-        <v>66.85516054918641</v>
+        <v>610.49106446322</v>
       </c>
       <c r="S9">
-        <v>0.09336005113742173</v>
+        <v>0.0887504403098287</v>
       </c>
       <c r="T9">
-        <v>0.09336005113742173</v>
+        <v>0.08875044030982869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H10">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I10">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J10">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.32253921086497</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N10">
-        <v>2.32253921086497</v>
+        <v>7.007279</v>
       </c>
       <c r="O10">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="P10">
-        <v>0.3955325883080871</v>
+        <v>0.3924288716688277</v>
       </c>
       <c r="Q10">
-        <v>50.63737951632673</v>
+        <v>51.13382931059533</v>
       </c>
       <c r="R10">
-        <v>50.63737951632673</v>
+        <v>460.204463795358</v>
       </c>
       <c r="S10">
-        <v>0.07071269147025967</v>
+        <v>0.06690245143931557</v>
       </c>
       <c r="T10">
-        <v>0.07071269147025967</v>
+        <v>0.06690245143931556</v>
       </c>
     </row>
   </sheetData>
